--- a/medicine/Mort/Valhalla_Memorial_Park_Cemetery/Valhalla_Memorial_Park_Cemetery.xlsx
+++ b/medicine/Mort/Valhalla_Memorial_Park_Cemetery/Valhalla_Memorial_Park_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Valhalla Memorial Park, fondé en 1923, est un cimetière situé au 10621 Victory Boulevard à North Hollywood, en Californie (États-Unis).
 Une section, le Portal of the Folded Wings Shrine to Aviation (en), est le dernier lieu de repos de plusieurs pionniers de l'aviation. Un mémorial dédié à la mémoire d'Amelia Earhart, disparue en mer, y est également situé.
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Fred Abbott, joueur de baseball
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fred Abbott, joueur de baseball
 Bertrand Blanchard Acosta, pionnier de l'aviation
 Eddie Acuff (en), acteur
 Luis Alberni, acteur
@@ -524,9 +541,43 @@
 Mary Alden, actrice
 Harry Antrim (1884-1967), acteur
 Johnny Arthur (en) (1883-1951), acteur
-Edwin August, acteur, réalisateur, scénariste
-B
-Frankie Bailey (1859-1953), actrice
+Edwin August, acteur, réalisateur, scénariste</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frankie Bailey (1859-1953), actrice
 Lee Baker (1875-1948), acteur
 Jill Banner (en), actrice
 Lyle Barton (1889-1971), actrice
@@ -550,9 +601,43 @@
 Nana Bryant, actrice
 Georgette Simon Burns (1897-1983), chanteuse française d'opéra
 Paul E. Burns (1881-1967), acteur
-Frederick Burton, acteur
-C
-Georgia Caine, actrice
+Frederick Burton, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Georgia Caine, actrice
 Colin Campbell (1883-1966), acteur
 Yakima Canutt, acteur, cascadeur, réalisateur
 Naomi Childers, actrice
@@ -571,34 +656,272 @@
 Jane Cowl, actrice
 Richard Crane, acteur
 Nick Cravat, acteur et cascadeur
-Charles Criswell King, "The Amazing Criswell", voyant et acteur
-D
-Cesare Danova, acteur
+Charles Criswell King, "The Amazing Criswell", voyant et acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cesare Danova, acteur
 Richard Day (1896-1972), scénographe au cinéma
 Curly Joe DeRita, acteur, humoriste, membre des Three Stooges
 Don Dillaway, acteur
-Douglass Dumbrille, acteur
-E
-Amelia Earhart (mémorial), première aviatrice américaine à traverser l'Atlantique
-Cliff Edwards, acteur, chanteur
-F
-Morgan Farley (1898-1988), acteur
-Eddie Firestone (en) (1920-2007), acteur
-G
-Ceferino Garcia, boxeur
-Lita Grey, actrice et seconde épouse de Charlie Chaplin
-H
-Jonathan Hale, acteur
+Douglass Dumbrille, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Amelia Earhart (mémorial), première aviatrice américaine à traverser l'Atlantique
+Cliff Edwards, acteur, chanteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Morgan Farley (1898-1988), acteur
+Eddie Firestone (en) (1920-2007), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ceferino Garcia, boxeur
+Lita Grey, actrice et seconde épouse de Charlie Chaplin</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jonathan Hale, acteur
 Florence Halop, actrice
 Lois Hamilton, mannequin, auteur, actrice, artiste, aviatrice
 Mahlon Hamilton, acteur
 Oliver Hardy, acteur
 Leigh Harline, compositeur
-Colin Higgins, acteur
-J
-Selmer Jackson, acteur
-K
-Fred Kelsey, acteur pionnier du cinéma
+Colin Higgins, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selmer Jackson, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fred Kelsey, acteur pionnier du cinéma
 Fred Kennedy (1909-1958), acteur, cascadeur
 Crauford Kent, acteur
 Kathleen Key, actrice
@@ -607,17 +930,85 @@
 Jack Kirk (1895-1948), acteur
 Fuzzy Knight, acteur
 June Knight, actrice et danseuse
-Theodore Kosloff, acteur, chorégraphe, danseur
-L
-Frank Lackteen, acteur
+Theodore Kosloff, acteur, chorégraphe, danseur</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Frank Lackteen, acteur
 Alice Lake, actrice
 Sheldon Lewis, acteur
 Robert Lowery, acteur
 Edward Ludlum (1920-2000), metteur en scène
 Sam Lufkin, acteur
-James Luisi, acteur
-M
-Barton MacLane, acteur
+James Luisi, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Barton MacLane, acteur
 Kermit Maynard, acteur
 Sam McDaniel, acteur
 Francis McDonald, acteur
@@ -628,44 +1019,313 @@
 Matilde Moisant, pionnière de l'aviation
 Mantan Moreland, acteur
 Mittie Morris, réformateur social
-Mae Murray, actrice
-N
-Nels P. Nelson (1918-1994), acteur, un Munchkin dans Le Magicien d'Oz (The Wizard of Oz, 1939)
+Mae Murray, actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nels P. Nelson (1918-1994), acteur, un Munchkin dans Le Magicien d'Oz (The Wizard of Oz, 1939)
 Buddy Noonan, producteur
-Fayard Nicholas, acteur et danseur
-P
-Virginia Pearson, actrice, pionnière du cinéma
-Eddy Polo, acteur, cascadeur, premier à avoir sauté en parachute de la tour Eiffel
-Q
-R
-Ruth Robinson (1887-1966), actrice
+Fayard Nicholas, acteur et danseur</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Virginia Pearson, actrice, pionnière du cinéma
+Eddy Polo, acteur, cascadeur, premier à avoir sauté en parachute de la tour Eiffel</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ruth Robinson (1887-1966), actrice
 "Slapsie Maxie" Rosenbloom (1904-1976), boxeur, acteur
-Gail Russell, actrice
-S
-Lewis Sargent, acteur
+Gail Russell, actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lewis Sargent, acteur
 Charles Sellon, acteur
 Hazel Shank (1920-2012)
 Hilder Smith, pionnière de l'aviation et parachutiste
 Charles Stevens, acteur mexicain
 Onslow Stevens, acteur
-Madame Sul-Te-Wan, actrice
-T
-Charlie Taylor, mécanicien, constructeur du moteur du premier vol de Wright
+Madame Sul-Te-Wan, actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Charlie Taylor, mécanicien, constructeur du moteur du premier vol de Wright
 Lyle Tayo, actrice
 Alma Tell, actrice
 Alice Terry, actrice
-Elinor Troy (1916-1949), actrice
-U
-V
-Alberta Vaughn, actrice
-Martha Vickers, actrice
-W
-Rudd Weatherwax, dresseur d'animaux
+Elinor Troy (1916-1949), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Alberta Vaughn, actrice
+Martha Vickers, actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Rudd Weatherwax, dresseur d'animaux
 Dave Willock, acteur
-Frederick Worlock, acteur
-X
-Y
-Chief Yowlachie, acteur</t>
+Frederick Worlock, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valhalla_Memorial_Park_Cemetery</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Chief Yowlachie, acteur</t>
         </is>
       </c>
     </row>
